--- a/output/3Y_P21_KFSDIV.xlsx
+++ b/output/3Y_P21_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -4157,10 +4160,10 @@
         <v>288038.17</v>
       </c>
       <c r="K25" s="1">
-        <v>199497.9137</v>
+        <v>199533.6662</v>
       </c>
       <c r="L25" s="1">
-        <v>13.2713</v>
+        <v>13.2737</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -4210,10 +4213,10 @@
         <v>286767.7818</v>
       </c>
       <c r="K26" s="1">
-        <v>209046.0051</v>
+        <v>209081.7577</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3554</v>
+        <v>13.3577</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -4263,10 +4266,10 @@
         <v>325131.4784</v>
       </c>
       <c r="K27" s="1">
-        <v>230363.3793</v>
+        <v>230399.1319</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4674</v>
+        <v>13.4695</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -4316,10 +4319,10 @@
         <v>347048.9161</v>
       </c>
       <c r="K28" s="1">
-        <v>225984.3185</v>
+        <v>226037.568</v>
       </c>
       <c r="L28" s="1">
-        <v>13.433</v>
+        <v>13.4362</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -4369,10 +4372,10 @@
         <v>360894.2704</v>
       </c>
       <c r="K29" s="1">
-        <v>224059.1936</v>
+        <v>224120.1303</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4132</v>
+        <v>13.4168</v>
       </c>
       <c r="M29" s="1">
         <v>0.75</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -4422,10 +4425,10 @@
         <v>393745.7035</v>
       </c>
       <c r="K30" s="1">
-        <v>230238.505</v>
+        <v>230299.4417</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4801</v>
+        <v>13.4837</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -4475,10 +4478,10 @@
         <v>400056.3263</v>
       </c>
       <c r="K31" s="1">
-        <v>228631.4583</v>
+        <v>228698.8171</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4599</v>
+        <v>13.4639</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -4528,10 +4531,10 @@
         <v>416603.3586</v>
       </c>
       <c r="K32" s="1">
-        <v>242375.7373</v>
+        <v>242443.0961</v>
       </c>
       <c r="L32" s="1">
-        <v>13.618</v>
+        <v>13.6217</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -4581,10 +4584,10 @@
         <v>407385.8411</v>
       </c>
       <c r="K33" s="1">
-        <v>261136.2823</v>
+        <v>261203.6411</v>
       </c>
       <c r="L33" s="1">
-        <v>13.7877</v>
+        <v>13.7912</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -4634,10 +4637,10 @@
         <v>401651.2085</v>
       </c>
       <c r="K34" s="1">
-        <v>290395.6928</v>
+        <v>290463.0516</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9362</v>
+        <v>13.9394</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -4687,10 +4690,10 @@
         <v>374785.6336</v>
       </c>
       <c r="K35" s="1">
-        <v>316116.1979</v>
+        <v>316183.5567</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9928</v>
+        <v>13.9958</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -4740,10 +4743,10 @@
         <v>416431.6452</v>
       </c>
       <c r="K36" s="1">
-        <v>363066.7013</v>
+        <v>363134.0601</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8607</v>
+        <v>13.8633</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -4793,10 +4796,10 @@
         <v>441273.4318</v>
       </c>
       <c r="K37" s="1">
-        <v>351352.2568</v>
+        <v>351466.4304</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8606</v>
+        <v>13.8651</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -4846,10 +4849,10 @@
         <v>421786.1882</v>
       </c>
       <c r="K38" s="1">
-        <v>346491.0597</v>
+        <v>346624.6438</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8527</v>
+        <v>13.8581</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -6197,10 +6200,10 @@
         <v>290094.5378</v>
       </c>
       <c r="K25" s="1">
-        <v>211406.1155</v>
+        <v>211441.3339</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3054</v>
+        <v>13.3076</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -6250,10 +6253,10 @@
         <v>288149.2166</v>
       </c>
       <c r="K26" s="1">
-        <v>222146.5702</v>
+        <v>222181.7886</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3933</v>
+        <v>13.3954</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -6303,10 +6306,10 @@
         <v>328241.2946</v>
       </c>
       <c r="K27" s="1">
-        <v>245413.4973</v>
+        <v>245448.7157</v>
       </c>
       <c r="L27" s="1">
-        <v>13.505</v>
+        <v>13.507</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -6356,10 +6359,10 @@
         <v>350934.2415</v>
       </c>
       <c r="K28" s="1">
-        <v>241468.4732</v>
+        <v>241519.4544</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4765</v>
+        <v>13.4793</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -6409,10 +6412,10 @@
         <v>365040.2781</v>
       </c>
       <c r="K29" s="1">
-        <v>240154.8765</v>
+        <v>240211.103</v>
       </c>
       <c r="L29" s="1">
-        <v>13.464</v>
+        <v>13.4671</v>
       </c>
       <c r="M29" s="1">
         <v>0.75</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -6462,10 +6465,10 @@
         <v>399469.4203</v>
       </c>
       <c r="K30" s="1">
-        <v>247519.7566</v>
+        <v>247575.983</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5373</v>
+        <v>13.5404</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -6515,10 +6518,10 @@
         <v>405509.7778</v>
       </c>
       <c r="K31" s="1">
-        <v>246596.1066</v>
+        <v>246656.0242</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5266</v>
+        <v>13.5299</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -6568,10 +6571,10 @@
         <v>422509.2628</v>
       </c>
       <c r="K32" s="1">
-        <v>262174.1958</v>
+        <v>262234.1134</v>
       </c>
       <c r="L32" s="1">
-        <v>13.6899</v>
+        <v>13.693</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -6621,10 +6624,10 @@
         <v>411775.0411</v>
       </c>
       <c r="K33" s="1">
-        <v>283217.9759</v>
+        <v>283277.8934</v>
       </c>
       <c r="L33" s="1">
-        <v>13.8618</v>
+        <v>13.8648</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -6674,10 +6677,10 @@
         <v>404754.5044</v>
       </c>
       <c r="K34" s="1">
-        <v>315669.7873</v>
+        <v>315729.7049</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0072</v>
+        <v>14.0099</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -6727,10 +6730,10 @@
         <v>374778.0354</v>
       </c>
       <c r="K35" s="1">
-        <v>344405.9228</v>
+        <v>344465.8404</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0599</v>
+        <v>14.0624</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -6780,10 +6783,10 @@
         <v>419148.0813</v>
       </c>
       <c r="K36" s="1">
-        <v>396263.9737</v>
+        <v>396323.8913</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9163</v>
+        <v>13.9184</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -6833,10 +6836,10 @@
         <v>445323.6688</v>
       </c>
       <c r="K37" s="1">
-        <v>384510.6777</v>
+        <v>384617.5654</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9179</v>
+        <v>13.9218</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -6886,10 +6889,10 @@
         <v>423103.8546</v>
       </c>
       <c r="K38" s="1">
-        <v>380225.2477</v>
+        <v>380349.2469</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9122</v>
+        <v>13.9167</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -8237,10 +8240,10 @@
         <v>292122.4661</v>
       </c>
       <c r="K25" s="1">
-        <v>224341.8399</v>
+        <v>224376.2971</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3476</v>
+        <v>13.3497</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -8290,10 +8293,10 @@
         <v>289450.3835</v>
       </c>
       <c r="K26" s="1">
-        <v>236413.7689</v>
+        <v>236448.226</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4389</v>
+        <v>13.4408</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -8343,10 +8346,10 @@
         <v>331406.1147</v>
       </c>
       <c r="K27" s="1">
-        <v>261836.4959</v>
+        <v>261870.9531</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5496</v>
+        <v>13.5514</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -8396,10 +8399,10 @@
         <v>354939.5715</v>
       </c>
       <c r="K28" s="1">
-        <v>258422.5144</v>
+        <v>258470.6125</v>
       </c>
       <c r="L28" s="1">
-        <v>13.527</v>
+        <v>13.5295</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -8449,10 +8452,10 @@
         <v>369329.0986</v>
       </c>
       <c r="K29" s="1">
-        <v>257839.292</v>
+        <v>257889.719</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5219</v>
+        <v>13.5245</v>
       </c>
       <c r="M29" s="1">
         <v>0.75</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -8502,10 +8505,10 @@
         <v>405476.7201</v>
       </c>
       <c r="K30" s="1">
-        <v>266566.6905</v>
+        <v>266617.1174</v>
       </c>
       <c r="L30" s="1">
-        <v>13.6013</v>
+        <v>13.6039</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -8555,10 +8558,10 @@
         <v>411221.1649</v>
       </c>
       <c r="K31" s="1">
-        <v>266467.8627</v>
+        <v>266518.6846</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6003</v>
+        <v>13.6029</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -8608,10 +8611,10 @@
         <v>428713.2399</v>
       </c>
       <c r="K32" s="1">
-        <v>284139.0444</v>
+        <v>284189.8663</v>
       </c>
       <c r="L32" s="1">
-        <v>13.7684</v>
+        <v>13.7709</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -8661,10 +8664,10 @@
         <v>416306.7295</v>
       </c>
       <c r="K33" s="1">
-        <v>307782.9143</v>
+        <v>307833.7362</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9421</v>
+        <v>13.9444</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -8714,10 +8717,10 @@
         <v>407863.4868</v>
       </c>
       <c r="K34" s="1">
-        <v>343852.2754</v>
+        <v>343903.0973</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0836</v>
+        <v>14.0857</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -8767,10 +8770,10 @@
         <v>374433.8949</v>
       </c>
       <c r="K35" s="1">
-        <v>376029.3886</v>
+        <v>376080.2105</v>
       </c>
       <c r="L35" s="1">
-        <v>14.1316</v>
+        <v>14.1335</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -8820,10 +8823,10 @@
         <v>420741.2863</v>
       </c>
       <c r="K36" s="1">
-        <v>415074.222</v>
+        <v>415125.0439</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0203</v>
+        <v>14.0221</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -8873,10 +8876,10 @@
         <v>448375.9305</v>
       </c>
       <c r="K37" s="1">
-        <v>422941.2357</v>
+        <v>422992.0576</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0174</v>
+        <v>14.0191</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -8926,10 +8929,10 @@
         <v>423092.0859</v>
       </c>
       <c r="K38" s="1">
-        <v>419427.1483</v>
+        <v>419492.0018</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0139</v>
+        <v>14.016</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.9013</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.3527</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8804</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6268</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3636</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8711</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1252</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1934</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1176</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3311</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3637</v>
@@ -10277,10 +10280,10 @@
         <v>293221.5243</v>
       </c>
       <c r="K25" s="1">
-        <v>239150.2107</v>
+        <v>239160.7398</v>
       </c>
       <c r="L25" s="1">
-        <v>13.4401</v>
+        <v>13.4407</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6447</v>
@@ -10330,10 +10333,10 @@
         <v>289766.5826</v>
       </c>
       <c r="K26" s="1">
-        <v>252708.0689</v>
+        <v>252718.598</v>
       </c>
       <c r="L26" s="1">
-        <v>13.5323</v>
+        <v>13.5329</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.486</v>
@@ -10383,10 +10386,10 @@
         <v>333680.7387</v>
       </c>
       <c r="K27" s="1">
-        <v>279540.2225</v>
+        <v>279550.7516</v>
       </c>
       <c r="L27" s="1">
-        <v>13.6341</v>
+        <v>13.6346</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.1958</v>
@@ -10436,10 +10439,10 @@
         <v>358125.5757</v>
       </c>
       <c r="K28" s="1">
-        <v>277799.2142</v>
+        <v>277816.6997</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6238</v>
+        <v>13.6246</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4264</v>
@@ -10489,10 +10492,10 @@
         <v>372822.4244</v>
       </c>
       <c r="K29" s="1">
-        <v>278082.6041</v>
+        <v>278100.0896</v>
       </c>
       <c r="L29" s="1">
-        <v>13.626</v>
+        <v>13.6268</v>
       </c>
       <c r="M29" s="1">
         <v>0.75</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>17.107</v>
@@ -10542,10 +10545,10 @@
         <v>410842.871</v>
       </c>
       <c r="K30" s="1">
-        <v>288373.7042</v>
+        <v>288391.1897</v>
       </c>
       <c r="L30" s="1">
-        <v>13.7102</v>
+        <v>13.711</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.8894</v>
@@ -10595,10 +10598,10 @@
         <v>416259.5638</v>
       </c>
       <c r="K31" s="1">
-        <v>289263.5287</v>
+        <v>289281.0142</v>
       </c>
       <c r="L31" s="1">
-        <v>13.7187</v>
+        <v>13.7195</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4004</v>
@@ -10648,10 +10651,10 @@
         <v>434288.1803</v>
       </c>
       <c r="K32" s="1">
-        <v>309323.2139</v>
+        <v>309340.6994</v>
       </c>
       <c r="L32" s="1">
-        <v>13.8892</v>
+        <v>13.89</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3877</v>
@@ -10701,10 +10704,10 @@
         <v>420036.4583</v>
       </c>
       <c r="K33" s="1">
-        <v>335928.5083</v>
+        <v>335945.9939</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0616</v>
+        <v>14.0624</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6367</v>
@@ -10754,10 +10757,10 @@
         <v>410017.8756</v>
       </c>
       <c r="K34" s="1">
-        <v>376099.6187</v>
+        <v>376117.1042</v>
       </c>
       <c r="L34" s="1">
-        <v>14.1951</v>
+        <v>14.1957</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.0061</v>
@@ -10807,10 +10810,10 @@
         <v>373109.7171</v>
       </c>
       <c r="K35" s="1">
-        <v>409092.7053</v>
+        <v>409110.1908</v>
       </c>
       <c r="L35" s="1">
-        <v>14.2319</v>
+        <v>14.2325</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.835</v>
@@ -10860,10 +10863,10 @@
         <v>420417.2682</v>
       </c>
       <c r="K36" s="1">
-        <v>419092.7053</v>
+        <v>419110.1908</v>
       </c>
       <c r="L36" s="1">
-        <v>14.2007</v>
+        <v>14.2013</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.4216</v>
@@ -10913,10 +10916,10 @@
         <v>448573.6143</v>
       </c>
       <c r="K37" s="1">
-        <v>442027.8424</v>
+        <v>442045.3279</v>
       </c>
       <c r="L37" s="1">
-        <v>14.1828</v>
+        <v>14.1833</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2404</v>
@@ -10966,10 +10969,10 @@
         <v>420975.6446</v>
       </c>
       <c r="K38" s="1">
-        <v>452027.8424</v>
+        <v>452045.3279</v>
       </c>
       <c r="L38" s="1">
-        <v>14.1886</v>
+        <v>14.1891</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.3049</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8527</v>
+        <v>13.8581</v>
       </c>
       <c r="E3" s="1">
-        <v>13.9122</v>
+        <v>13.9167</v>
       </c>
       <c r="F3" s="1">
-        <v>14.0139</v>
+        <v>14.016</v>
       </c>
       <c r="G3" s="1">
-        <v>14.1886</v>
+        <v>14.1891</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>103514.4046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9237</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2168</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1124</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0086</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9313</v>
       </c>
     </row>
   </sheetData>
